--- a/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Google Drive/CEPLAS/MetadataTemplates/SWATE_templates/templates/3ASY03_MetabolomicsMassSpec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD08884-0AD0-264A-A743-27C6B9B9961D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D8306E-699F-D941-AC9B-2D8FDE8B312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
+    <workbookView xWindow="-15200" yWindow="-19300" windowWidth="25600" windowHeight="15540" xr2:uid="{0A3B5FB5-5846-1147-AD66-144B0B2820ED}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1495,10 +1486,10 @@
   <dimension ref="A1:BJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="22" topLeftCell="BE24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="22" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="BH25" sqref="BH25"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
